--- a/aula004/exercicios/ex01_clientes/exercicio1_clientes.xlsx
+++ b/aula004/exercicios/ex01_clientes/exercicio1_clientes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isaac\github\BCD\aula004\exercicios\ex01_clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6ED672-6B5A-469B-B45C-C1DEFC229FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -106,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,11 +465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +621,12 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/aula004/exercicios/ex01_clientes/exercicio1_clientes.xlsx
+++ b/aula004/exercicios/ex01_clientes/exercicio1_clientes.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isaac\github\BCD\aula004\exercicios\ex01_clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\isaac\github\BCD\aula004\exercicios\ex01_clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6ED672-6B5A-469B-B45C-C1DEFC229FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C292F36-E115-423D-9B38-CFC31437F9BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
+    <sheet name="Telefones" sheetId="2" r:id="rId2"/>
+    <sheet name="Clientes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>id_cliente</t>
   </si>
@@ -92,13 +94,37 @@
   <si>
     <t>(19)3030-4465
 (19)93030-4460</t>
+  </si>
+  <si>
+    <t>INSERT INTO cliente(nome, nascimento, sexo, peso) VALUES</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>2000-05-22</t>
+  </si>
+  <si>
+    <t>1990-08-23</t>
+  </si>
+  <si>
+    <t>1988-06-14</t>
+  </si>
+  <si>
+    <t>2002-07-13</t>
+  </si>
+  <si>
+    <t>2005-08-14</t>
+  </si>
+  <si>
+    <t>2007-06-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +142,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -152,6 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,22 +504,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -561,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -581,7 +619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -601,7 +639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -621,11 +659,252 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFDB15D-D1E8-4A50-AF53-12633BD0BB9F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8650A4-AB15-4E3C-82E0-42959B9C24AF}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>65</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;")"</f>
+        <v>('Ana de Souza de Oliveira','2000-05-22','M',65)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>88</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H7" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;")"</f>
+        <v>('Ana Oliveira Oliveira','1990-08-23','T',88)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>('Lúcia da Silva de Souza','1988-06-14','F',45.5)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>98</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>('Marcos de Souza Castro','2002-07-13','M',98)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>101</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>('Maria Oliveira Castro','2005-08-14','T',101)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>80</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>('Jurema de Souza Castro','2007-06-15','F',80)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
